--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -455,7 +455,7 @@
         <v>9999</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">

--- a/public/example.xlsx
+++ b/public/example.xlsx
@@ -441,7 +441,7 @@
         <v>2200</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
